--- a/downloaded_files/CMPS103_Tutorial-35655.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35655.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Dai Khaled Mohamed Abdelsalam Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن ثامر محمد الذهبي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman thamer mohamed elzahaby</x:t>
   </x:si>
   <x:si>
     <x:t>1240334</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1246,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.2687282755</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.2729993056</x:v>
+        <x:v>45912.2687282755</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.2739263889</x:v>
+        <x:v>45912.2729993056</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45912.2739263889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45906.8758284722</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.277387037</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45912.277387037</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6671912037</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35655.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35655.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Rasha Hamdy Ahmed El Desouky</x:t>
   </x:si>
   <x:si>
+    <x:t>1230190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد عوض علي عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Mohamed Awad Ali Awad</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240018</x:t>
   </x:si>
   <x:si>
@@ -141,15 +150,6 @@
     <x:t>Ziad Mohamed Farghel Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240324</x:t>
   </x:si>
   <x:si>
@@ -195,15 +195,6 @@
     <x:t>Omar Ahmed Abd ElRahman Ismail</x:t>
   </x:si>
   <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230322</x:t>
   </x:si>
   <x:si>
@@ -274,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>منه الله جمال على محمد حمدان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mennatallah Gamal Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240382</x:t>
@@ -416,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1159,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45927.4164710995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6381538542</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1383,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.2729993056</x:v>
+        <x:v>45912.2739263889</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.2739263889</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45906.8758284722</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.277387037</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1688,70 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6798766551</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6671912037</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35655.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35655.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
   </x:si>
   <x:si>
+    <x:t>1220094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عزت الحديدى عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed ezzat</x:t>
+  </x:si>
+  <x:si>
     <x:t>2240005</x:t>
   </x:si>
   <x:si>
@@ -274,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Ahmad Mohamad AbdelHalim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنا محمد رشدى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hana Mohamed Roshdy Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230128</x:t>
@@ -398,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -789,7 +807,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4194545486</x:v>
+        <x:v>45927.7946808218</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -853,7 +871,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4206642361</x:v>
+        <x:v>45927.7395826389</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6652306713</x:v>
+        <x:v>45907.4206642361</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.6335916319</x:v>
+        <x:v>45907.6652306713</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6787040857</x:v>
+        <x:v>45912.6335916319</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6683668981</x:v>
+        <x:v>45906.6787040857</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.2682591088</x:v>
+        <x:v>45907.6683668981</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45912.2682591088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4585958333</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45909.4585958333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4164710995</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45927.4164710995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.2687282755</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.2739263889</x:v>
+        <x:v>45912.2687282755</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45912.2739263889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45906.8758284722</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6671912037</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1688,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45927.7252559838</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6671912037</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35655.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35655.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ابراهيم محمود ابراهيم محمد ابوالنور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBRAHIM MAHMOUD IBRAHIM MOHAMED ABOELNOUR</x:t>
   </x:si>
   <x:si>
     <x:t>2210002</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -725,7 +716,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="49.810625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.450625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -807,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.7946808218</x:v>
+        <x:v>45907.4160199074</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -839,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4160199074</x:v>
+        <x:v>45927.7395826389</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -871,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.7395826389</x:v>
+        <x:v>45907.4206642361</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -903,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4206642361</x:v>
+        <x:v>45907.6652306713</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6652306713</x:v>
+        <x:v>45912.6335916319</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.6335916319</x:v>
+        <x:v>45906.6787040857</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6787040857</x:v>
+        <x:v>45907.6683668981</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6683668981</x:v>
+        <x:v>45912.2682591088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.2682591088</x:v>
+        <x:v>45907.664677662</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.664677662</x:v>
+        <x:v>45909.4585958333</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4585958333</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45927.4164710995</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4164710995</x:v>
+        <x:v>45907.6655032755</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655032755</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45922.4207998032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.4207998032</x:v>
+        <x:v>45907.665771412</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665771412</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45912.2687282755</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.2687282755</x:v>
+        <x:v>45912.2739263889</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.2739263889</x:v>
+        <x:v>45907.4144983796</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144983796</x:v>
+        <x:v>45907.6648360764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6648360764</x:v>
+        <x:v>45906.8758284722</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45927.7252559838</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.7252559838</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6671912037</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35655.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35655.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>karim mohamed farouk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1240255</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.8758284722</x:v>
+        <x:v>45912.2684134259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2684134259</x:v>
+        <x:v>45912.2765343403</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.2765343403</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.4152503125</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4152503125</x:v>
+        <x:v>45907.6798766551</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6798766551</x:v>
+        <x:v>45927.7252559838</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.7252559838</x:v>
+        <x:v>45907.6671912037</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6671912037</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
